--- a/cgc1.xlsx
+++ b/cgc1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\前端Study\代码\nodejs\zqb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3150F6-ED68-4C13-8D5A-E888390AD405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Qu jian guo</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +171,48 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="K5" authorId="1" shapeId="0" xr:uid="{FE0D87AC-31DB-4D0E-A7C9-5A4488E102AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">头部
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{4A2C8D44-D72D-4855-B0FD-C867AE5EC566}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+json的书写和ajax的请求</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K14" authorId="0">
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K19" authorId="1">
+    <comment ref="K19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -363,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="1">
+    <comment ref="L19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -390,7 +437,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -450,168 +497,22 @@
   </si>
   <si>
     <t>于昊</t>
+  </si>
+  <si>
+    <t>豆瓣首页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,8 +526,45 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,188 +583,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -834,255 +592,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,67 +615,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1417,26 +895,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
     <col min="2" max="16383" width="14.875" style="3" customWidth="1"/>
     <col min="16384" max="16384" width="14.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1446,20 +924,30 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
       <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="2:17">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3">
         <v>408</v>
       </c>
@@ -1496,13 +984,13 @@
       <c r="M2" s="4">
         <v>43567</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:17">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1524,11 +1012,11 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:17">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1550,11 +1038,11 @@
       <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:17">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1573,14 +1061,20 @@
       <c r="F5" s="3">
         <v>7</v>
       </c>
+      <c r="G5" s="3">
+        <v>7</v>
+      </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:17">
+      <c r="L5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1602,11 +1096,11 @@
       <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:17">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1625,11 +1119,11 @@
       <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:17">
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1648,11 +1142,11 @@
       <c r="K8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:11">
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:11">
+    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1674,8 +1168,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="9" customHeight="1"/>
-    <row r="12" customHeight="1" spans="1:15">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1685,21 +1179,30 @@
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:17">
-      <c r="B13" s="3"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1733,58 +1236,55 @@
       <c r="M13" s="4">
         <v>43567</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:17">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:17">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:17">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:17">
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1794,11 +1294,11 @@
       <c r="K17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:17">
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1808,30 +1308,28 @@
       <c r="K18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:17">
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="3"/>
       <c r="K19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:11">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:11">
+    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1853,9 +1351,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="6" customHeight="1"/>
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="O13:Q19"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="O1:Q1"/>
@@ -1863,10 +1362,10 @@
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O2:Q8"/>
-    <mergeCell ref="O13:Q19"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>